--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Category" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Category!$A$1:$A$6</definedName>
     <definedName name="Category">Category!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -44,14 +45,95 @@
   </si>
   <si>
     <t>Function</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Scope definition</t>
+  </si>
+  <si>
+    <t>First batch choices</t>
+  </si>
+  <si>
+    <t>Echo Localization</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Video via Raspberry</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>At least feasible with Motion</t>
+  </si>
+  <si>
+    <t>Motors speed control</t>
+  </si>
+  <si>
+    <t>Check we can drive ApeRobot with Webcam over Internet</t>
+  </si>
+  <si>
+    <t>Check we can localize ApeRobot with SFR05 and logisitic regression</t>
+  </si>
+  <si>
+    <t>Octave on Raspberry</t>
+  </si>
+  <si>
+    <t>Check we can control speed rotation with motors encoder</t>
+  </si>
+  <si>
+    <t>Check we can use Octave on Raspberry to run logistic regresion</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>1 encoder HS 
+signal need to be amplify</t>
+  </si>
+  <si>
+    <t>Installation and first run Ok</t>
+  </si>
+  <si>
+    <t>Sound recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check we can identify sound and sound direction </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,8 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,36 +468,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A185"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -461,13 +666,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -476,10 +684,33 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A1:A6">
+    <sortCondition ref="A1:A6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="1" r:id="rId1"/>
     <sheet name="ToBeDecided" sheetId="2" r:id="rId2"/>
-    <sheet name="Orders" sheetId="3" r:id="rId3"/>
+    <sheet name="BOM" sheetId="3" r:id="rId3"/>
     <sheet name="Category" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Category!$A$1:$A$6</definedName>
     <definedName name="Category">Category!$A$1:$A$10</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>Task</t>
   </si>
@@ -118,13 +118,154 @@
   </si>
   <si>
     <t xml:space="preserve">Check we can identify sound and sound direction </t>
+  </si>
+  <si>
+    <t>Axis accelerometer</t>
+  </si>
+  <si>
+    <t>L3GD20H 3-Axis Gyro Carrier with voltage regulator</t>
+  </si>
+  <si>
+    <t>Check we can dectect ApeRobot orientation change</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Tested:  arduino connection and dialog</t>
+  </si>
+  <si>
+    <t>Linear acceleromter</t>
+  </si>
+  <si>
+    <t>L3GD20 LSM303D BMP180 gyroscope accéléromètre boussole altimètre pour Arduino AL</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Qte</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Motor 2342 L012CR 12 V 120 rpm avec codeur et boîte de vitesses</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>one encoder HS</t>
+  </si>
+  <si>
+    <t>10x AA portable batterie Clip Holder Box Case</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>MG996R Micro Servo 180</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR led émetteur infrarouge et IR pairs récepteur diodes </t>
+  </si>
+  <si>
+    <t>need amplier to be used as wheel encoder</t>
+  </si>
+  <si>
+    <t>Servo 360 grau Rotation continue Servo MG995 Metal Gear</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Rq</t>
+  </si>
+  <si>
+    <t>no reference position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC - SR04 echo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo localization </t>
+  </si>
+  <si>
+    <t>Arduino Mega 2560 R3 Mega2560 REV3</t>
+  </si>
+  <si>
+    <t>Robot components</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Dual bridge Motor driver L278M</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 2 B</t>
+  </si>
+  <si>
+    <t>Gotronic</t>
+  </si>
+  <si>
+    <t>Wheel  roues jaunes TAM6626J</t>
+  </si>
+  <si>
+    <t>Free wheel</t>
+  </si>
+  <si>
+    <t>Voltage regulator TO-220 LT1085 CT-5 0</t>
+  </si>
+  <si>
+    <t>buzzer</t>
+  </si>
+  <si>
+    <t>webcam</t>
+  </si>
+  <si>
+    <t>microphone</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>shaft</t>
+  </si>
+  <si>
+    <t>for webcam 360</t>
+  </si>
+  <si>
+    <t>for echo localization 360</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +281,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,18 +316,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -468,25 +676,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="8" width="40.5703125" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,10 +718,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -523,7 +735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -531,7 +743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -551,7 +763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -574,7 +786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -584,11 +796,11 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -605,7 +817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -617,6 +829,34 @@
       </c>
       <c r="E8">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -652,14 +892,596 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11">
+        <v>42298</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="12">
+        <v>6.9</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <f>G3*H3</f>
+        <v>6.9</v>
+      </c>
+      <c r="O3" s="8">
+        <f>N3*G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="11">
+        <v>42291</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="12">
+        <f>15.72/5</f>
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12">
+        <f>G4*H4</f>
+        <v>15.72</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" ref="O4:O13" si="0">N4*G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11">
+        <v>42275</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="12">
+        <v>14.68</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12">
+        <f>G5*H5</f>
+        <v>29.36</v>
+      </c>
+      <c r="J5" s="9">
+        <v>42299</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="0"/>
+        <v>29.36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11">
+        <v>42260</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1.28</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="12">
+        <f>G6*H6</f>
+        <v>2.56</v>
+      </c>
+      <c r="J6" s="9">
+        <v>42297</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="11">
+        <v>42257</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4.92</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <f>G7*H7</f>
+        <v>4.92</v>
+      </c>
+      <c r="J7" s="9">
+        <v>42277</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="0"/>
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="11">
+        <v>42274</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="12">
+        <f>2.69/10</f>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12">
+        <f>G8*H8</f>
+        <v>2.6900000000000004</v>
+      </c>
+      <c r="J8" s="9">
+        <v>42299</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="11">
+        <v>42243</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="12">
+        <v>8.06</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <f>G9*H9</f>
+        <v>8.06</v>
+      </c>
+      <c r="J9" s="9">
+        <v>42277</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="0"/>
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="11">
+        <v>42243</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="12">
+        <f>7.38/10</f>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="12">
+        <f>G10*H10</f>
+        <v>7.38</v>
+      </c>
+      <c r="J10" s="9">
+        <v>42278</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.952</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="11">
+        <v>42243</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="12">
+        <v>5.38</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="12">
+        <f>G11*H11</f>
+        <v>10.76</v>
+      </c>
+      <c r="J11" s="9">
+        <v>42277</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="11">
+        <v>42243</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1.83</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="12">
+        <f>G12*H12</f>
+        <v>3.66</v>
+      </c>
+      <c r="J12" s="9">
+        <v>42278</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G13" s="12">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <f>G13*H13</f>
+        <v>36</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="12">
+        <f>6.3/2</f>
+        <v>3.15</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="12">
+        <f>G14*H14</f>
+        <v>6.3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" ref="O14" si="1">N14*G14</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="13">
+        <f>SUM(O3:O24)</f>
+        <v>94.802000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>Task</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Ali</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Received</t>
   </si>
   <si>
-    <t>one encoder HS</t>
-  </si>
-  <si>
     <t>10x AA portable batterie Clip Holder Box Case</t>
   </si>
   <si>
@@ -186,12 +180,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">IR led émetteur infrarouge et IR pairs récepteur diodes </t>
-  </si>
-  <si>
-    <t>need amplier to be used as wheel encoder</t>
-  </si>
-  <si>
     <t>Servo 360 grau Rotation continue Servo MG995 Metal Gear</t>
   </si>
   <si>
@@ -204,9 +192,6 @@
     <t>no reference position</t>
   </si>
   <si>
-    <t xml:space="preserve">HC - SR04 echo </t>
-  </si>
-  <si>
     <t xml:space="preserve">echo localization </t>
   </si>
   <si>
@@ -231,9 +216,6 @@
     <t>Wheel  roues jaunes TAM6626J</t>
   </si>
   <si>
-    <t>Free wheel</t>
-  </si>
-  <si>
     <t>Voltage regulator TO-220 LT1085 CT-5 0</t>
   </si>
   <si>
@@ -249,13 +231,73 @@
     <t>battery</t>
   </si>
   <si>
-    <t>shaft</t>
-  </si>
-  <si>
     <t>for webcam 360</t>
   </si>
   <si>
     <t>for echo localization 360</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>Tri Distribution</t>
+  </si>
+  <si>
+    <t>1m used over 5m ordered</t>
+  </si>
+  <si>
+    <t>pinion</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>IR emitter &amp; receiver</t>
+  </si>
+  <si>
+    <t>L3GD20H</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t> L7809CV 7809 Voltage Regulator IC TO-220 9 V 1.5A</t>
+  </si>
+  <si>
+    <t>pack of 10 pieces</t>
+  </si>
+  <si>
+    <t>pack of 2x10 pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> encoder HS</t>
+  </si>
+  <si>
+    <t>resistors</t>
+  </si>
+  <si>
+    <t>FT232RL FTDI USB 3.3 V 5.5 V à TTL</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>breadboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC - SR05 echo </t>
+  </si>
+  <si>
+    <t>for speed control</t>
+  </si>
+  <si>
+    <t>Rotation continue Servo MG995 360</t>
+  </si>
+  <si>
+    <t>to rotate webcam</t>
+  </si>
+  <si>
+    <t>no fixed point</t>
   </si>
 </sst>
 </file>
@@ -263,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -328,25 +370,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,10 +934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O25"/>
+  <dimension ref="B1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,575 +947,911 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>64</v>
+      <c r="O2" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>42298</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="12">
+        <v>47</v>
+      </c>
+      <c r="G3" s="11">
         <v>6.9</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="12">
-        <f>G3*H3</f>
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I25" si="0">G3*H3</f>
         <v>6.9</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <f>N3*G3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="11">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="10">
         <v>42291</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="12">
+        <v>47</v>
+      </c>
+      <c r="G4" s="11">
         <f>15.72/5</f>
         <v>3.1440000000000001</v>
       </c>
       <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="12">
-        <f>G4*H4</f>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
         <v>15.72</v>
       </c>
-      <c r="O4" s="8">
-        <f t="shared" ref="O4:O13" si="0">N4*G4</f>
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" ref="O4:O15" si="1">N4*G4</f>
+        <v>3.1440000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="11">
-        <v>42275</v>
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10">
+        <v>42305</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="12">
-        <v>14.68</v>
+        <v>47</v>
+      </c>
+      <c r="G5" s="11">
+        <f>1.57/10</f>
+        <v>0.157</v>
       </c>
       <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="12">
-        <f>G5*H5</f>
-        <v>29.36</v>
-      </c>
-      <c r="J5" s="9">
-        <v>42299</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>1.57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5" s="8">
-        <f t="shared" si="0"/>
-        <v>29.36</v>
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.157</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="11">
-        <v>42260</v>
+        <v>46</v>
+      </c>
+      <c r="D6" s="10">
+        <v>42275</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1.28</v>
+        <v>47</v>
+      </c>
+      <c r="G6" s="11">
+        <v>14.68</v>
       </c>
       <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="I6" s="12">
-        <f>G6*H6</f>
-        <v>2.56</v>
-      </c>
-      <c r="J6" s="9">
-        <v>42297</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>29.36</v>
+      </c>
+      <c r="J6" s="8">
+        <v>42299</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="1"/>
+        <v>29.36</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="11">
-        <v>42257</v>
+        <v>48</v>
+      </c>
+      <c r="D7" s="10">
+        <v>42260</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="12">
-        <v>4.92</v>
+        <v>47</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.28</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
-        <f>G7*H7</f>
-        <v>4.92</v>
-      </c>
-      <c r="J7" s="9">
-        <v>42277</v>
+        <v>2</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>2.56</v>
+      </c>
+      <c r="J7" s="8">
+        <v>42297</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
-        <f t="shared" si="0"/>
-        <v>4.92</v>
+        <v>49</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="11">
-        <v>42274</v>
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="10">
+        <v>42257</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="12">
-        <f>2.69/10</f>
-        <v>0.26900000000000002</v>
+        <v>47</v>
+      </c>
+      <c r="G8" s="11">
+        <v>4.92</v>
       </c>
       <c r="H8" s="3">
-        <v>10</v>
-      </c>
-      <c r="I8" s="12">
-        <f>G8*H8</f>
-        <v>2.6900000000000004</v>
-      </c>
-      <c r="J8" s="9">
-        <v>42299</v>
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>4.92</v>
+      </c>
+      <c r="J8" s="8">
+        <v>42277</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="1"/>
+        <v>4.92</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="11">
-        <v>42243</v>
+        <v>88</v>
+      </c>
+      <c r="D9" s="10">
+        <v>42274</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="12">
-        <v>8.06</v>
+        <v>47</v>
+      </c>
+      <c r="G9" s="11">
+        <f>2.69/20</f>
+        <v>0.13450000000000001</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <f>G9*H9</f>
-        <v>8.06</v>
-      </c>
-      <c r="J9" s="9">
-        <v>42277</v>
+        <v>20</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6900000000000004</v>
+      </c>
+      <c r="J9" s="8">
+        <v>42299</v>
       </c>
       <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="L9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" t="s">
-        <v>53</v>
-      </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" si="0"/>
-        <v>8.06</v>
+        <v>2</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="11">
+        <v>69</v>
+      </c>
+      <c r="D10" s="10">
         <v>42243</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="12">
+        <v>47</v>
+      </c>
+      <c r="G10" s="11">
+        <v>8.06</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>8.06</v>
+      </c>
+      <c r="J10" s="8">
+        <v>42277</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="1"/>
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10">
+        <v>42243</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="11">
         <f>7.38/10</f>
         <v>0.73799999999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>10</v>
       </c>
-      <c r="I10" s="12">
-        <f>G10*H10</f>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
         <v>7.38</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J11" s="8">
         <v>42278</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10">
+      <c r="N11">
         <v>4</v>
       </c>
-      <c r="O10" s="8">
-        <f t="shared" si="0"/>
+      <c r="O11" s="7">
+        <f t="shared" si="1"/>
         <v>2.952</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="11">
-        <v>42243</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="12">
-        <v>5.38</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="12">
-        <f>G11*H11</f>
-        <v>10.76</v>
-      </c>
-      <c r="J11" s="9">
-        <v>42277</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8">
-        <f t="shared" si="0"/>
-        <v>5.38</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="11">
+        <v>57</v>
+      </c>
+      <c r="D12" s="10">
         <v>42243</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1.83</v>
+        <v>47</v>
+      </c>
+      <c r="G12" s="11">
+        <v>5.38</v>
       </c>
       <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="12">
-        <f>G12*H12</f>
-        <v>3.66</v>
-      </c>
-      <c r="J12" s="9">
-        <v>42278</v>
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>10.76</v>
+      </c>
+      <c r="J12" s="8">
+        <v>42277</v>
       </c>
       <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" t="s">
         <v>51</v>
       </c>
-      <c r="M12" t="s">
-        <v>53</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" s="8">
-        <f t="shared" si="0"/>
-        <v>1.83</v>
+      <c r="O12" s="7">
+        <f t="shared" si="1"/>
+        <v>5.38</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2014</v>
-      </c>
-      <c r="G13" s="12">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="D13" s="10">
+        <v>42243</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1.83</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
-        <f>G13*H13</f>
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>3.66</v>
+      </c>
+      <c r="J13" s="8">
+        <v>42278</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" s="8">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="O13" s="7">
+        <f t="shared" si="1"/>
+        <v>1.83</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="3">
+        <v>77</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>42292</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3">
         <v>2014</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="G15" s="11">
+        <v>36</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="11">
         <f>6.3/2</f>
         <v>3.15</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="12">
-        <f>G14*H14</f>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
         <v>6.3</v>
       </c>
-      <c r="M14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14">
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="O14" s="8">
-        <f t="shared" ref="O14" si="1">N14*G14</f>
+      <c r="O16" s="7">
+        <f>N16*G16</f>
         <v>6.3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" ref="O17:O21" si="2">N17*G17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>1</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="10">
+        <v>42331</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="11">
+        <f>45/5</f>
+        <v>9</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J21" s="8">
+        <v>42335</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" t="s">
+        <v>51</v>
+      </c>
       <c r="N21">
         <v>1</v>
       </c>
+      <c r="O21" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="10">
+        <v>42332</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="11">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J22" s="8">
+        <v>42336</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" ref="O22:O28" si="3">N22*G22</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="10">
+        <v>42243</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1.71</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="0"/>
+        <v>1.71</v>
+      </c>
+      <c r="J23" s="8">
+        <v>42248</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="3"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O25" s="13">
-        <f>SUM(O3:O24)</f>
-        <v>94.802000000000007</v>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="10">
+        <v>42245</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="11">
+        <v>8.06</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="0"/>
+        <v>8.06</v>
+      </c>
+      <c r="J25" s="8">
+        <v>42262</v>
+      </c>
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="7"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="12">
+        <f>SUM(O3:O30)</f>
+        <v>123.08199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -20,6 +20,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="B22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 Mètres Chaine Simple-ISO standard Au pas de : 6 (6 x 2,8 mm)  04-B1 1
+Pignon Simple Pas 6 mm (04 1) Nbr de dents :9  PS04B09 2
+Pignon Simple Pas 6 mm (04 1) Nbr de dents :10  PS04B10 2
+Pignon Simple Pas 6 mm (04 1) Nbr de dents :12  PS04B12 2
+Attache rapide pour chaine : 04B1 6 x 2,8 mm  AR04B1 6
+Pignon Simple Pas 6 mm (04 1) Nbr de dents :8  PS04B08 2
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
@@ -246,9 +276,6 @@
     <t>1m used over 5m ordered</t>
   </si>
   <si>
-    <t>pinion</t>
-  </si>
-  <si>
     <t>transmission</t>
   </si>
   <si>
@@ -298,6 +325,9 @@
   </si>
   <si>
     <t>no fixed point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pignions </t>
   </si>
 </sst>
 </file>
@@ -307,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +360,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -933,11 +970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +983,7 @@
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="7" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="3" bestFit="1" customWidth="1"/>
@@ -1050,7 +1087,7 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="10">
         <v>42291</v>
@@ -1088,10 +1125,10 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="10">
         <v>42305</v>
@@ -1114,7 +1151,7 @@
         <v>1.57</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
         <v>51</v>
@@ -1154,7 +1191,7 @@
         <v>42299</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
         <v>51</v>
@@ -1246,10 +1283,10 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10">
         <v>42274</v>
@@ -1275,7 +1312,7 @@
         <v>42299</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
         <v>51</v>
@@ -1336,7 +1373,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -1460,7 +1497,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="3" t="s">
@@ -1564,7 +1601,7 @@
         <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
@@ -1631,7 +1668,7 @@
         <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="10">
         <v>42331</v>
@@ -1675,10 +1712,10 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
       </c>
       <c r="D22" s="10">
         <v>42332</v>
@@ -1718,10 +1755,10 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
       </c>
       <c r="D23" s="10">
         <v>42243</v>
@@ -1761,7 +1798,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
@@ -1786,10 +1823,10 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
         <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
       </c>
       <c r="D25" s="10">
         <v>42245</v>
@@ -1817,7 +1854,7 @@
         <v>49</v>
       </c>
       <c r="L25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="3"/>
@@ -1838,7 +1875,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="7">
         <f t="shared" si="3"/>
@@ -1861,6 +1898,7 @@
     <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -137,10 +137,6 @@
     <t>Issues</t>
   </si>
   <si>
-    <t>1 encoder HS 
-signal need to be amplify</t>
-  </si>
-  <si>
     <t>Installation and first run Ok</t>
   </si>
   <si>
@@ -328,6 +324,78 @@
   </si>
   <si>
     <t xml:space="preserve">pignions </t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Raspberry</t>
+  </si>
+  <si>
+    <t>Ended</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>to much power consuming</t>
+  </si>
+  <si>
+    <t>raspberry to much power consuming</t>
+  </si>
+  <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t>Check if we can use a raspberry  as a network gateway and video system</t>
+  </si>
+  <si>
+    <t>Check if we can use a esp8266 as a network gateway and video system</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Check if we can use a smartphone as a video system</t>
+  </si>
+  <si>
+    <t>probably need to add a servo motor to rotate the camera</t>
+  </si>
+  <si>
+    <t>Obstacle detection</t>
+  </si>
+  <si>
+    <t>Check if we can use echo to dynamicaly detect obstacles</t>
+  </si>
+  <si>
+    <t>need to work asynchronously</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+home made encoder</t>
+  </si>
+  <si>
+    <t>at the end system reliable en  term of distance</t>
+  </si>
+  <si>
+    <t>still some slight speed difference between motors that introduces an angle</t>
+  </si>
+  <si>
+    <t>Power system</t>
+  </si>
+  <si>
+    <t>Choose power system</t>
+  </si>
+  <si>
+    <t>it seams necessary to have 2 different power sources
+1 for electronic and 1 for motors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first experiences ok </t>
+  </si>
+  <si>
+    <t>risk to be rather complex to maintain 
+to be design as an object ?</t>
   </si>
 </sst>
 </file>
@@ -755,22 +823,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" customWidth="1"/>
     <col min="9" max="9" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -797,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>27</v>
@@ -841,6 +909,9 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -875,8 +946,17 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -890,10 +970,13 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -901,10 +984,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
       <c r="E8">
         <v>2016</v>
@@ -915,19 +998,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -935,7 +1018,98 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -973,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,12 +1174,12 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -1015,25 +1189,25 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
@@ -1042,30 +1216,30 @@
         <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="10">
         <v>42298</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="11">
         <v>6.9</v>
@@ -1084,19 +1258,19 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="10">
         <v>42291</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="11">
         <f>15.72/5</f>
@@ -1110,10 +1284,10 @@
         <v>15.72</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1125,19 +1299,19 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="10">
         <v>42305</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="11">
         <f>1.57/10</f>
@@ -1151,10 +1325,10 @@
         <v>1.57</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1166,16 +1340,16 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="10">
         <v>42275</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="11">
         <v>14.68</v>
@@ -1191,10 +1365,10 @@
         <v>42299</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1206,16 +1380,16 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="10">
         <v>42260</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="11">
         <v>1.28</v>
@@ -1231,7 +1405,7 @@
         <v>42297</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="7">
         <f t="shared" si="1"/>
@@ -1240,19 +1414,19 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="10">
         <v>42257</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="11">
         <v>4.92</v>
@@ -1268,10 +1442,10 @@
         <v>42277</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1283,19 +1457,19 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="10">
         <v>42274</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="11">
         <f>2.69/20</f>
@@ -1312,10 +1486,10 @@
         <v>42299</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1327,19 +1501,19 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="10">
         <v>42243</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="11">
         <v>8.06</v>
@@ -1355,13 +1529,13 @@
         <v>42277</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1373,19 +1547,19 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10">
         <v>42243</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="11">
         <f>7.38/10</f>
@@ -1402,10 +1576,10 @@
         <v>42278</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -1417,16 +1591,16 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="10">
         <v>42243</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="11">
         <v>5.38</v>
@@ -1442,10 +1616,10 @@
         <v>42277</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1457,16 +1631,16 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="10">
         <v>42243</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="11">
         <v>1.83</v>
@@ -1482,10 +1656,10 @@
         <v>42278</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1497,14 +1671,14 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="11">
         <v>4.2</v>
@@ -1520,7 +1694,7 @@
         <v>42292</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" si="1"/>
@@ -1529,7 +1703,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3">
         <v>2014</v>
@@ -1545,10 +1719,10 @@
         <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1560,16 +1734,16 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3">
         <v>2014</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="11">
         <f>6.3/2</f>
@@ -1583,10 +1757,10 @@
         <v>6.3</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1598,10 +1772,10 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
@@ -1617,7 +1791,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
@@ -1633,7 +1807,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="0"/>
@@ -1649,7 +1823,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
@@ -1665,19 +1839,19 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="10">
         <v>42331</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="11">
         <f>45/5</f>
@@ -1694,13 +1868,13 @@
         <v>42335</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1712,19 +1886,19 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="10">
         <v>42332</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="11">
         <v>2</v>
@@ -1740,10 +1914,10 @@
         <v>42336</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>6</v>
@@ -1755,19 +1929,19 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
       </c>
       <c r="D23" s="10">
         <v>42243</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="11">
         <v>1.71</v>
@@ -1783,10 +1957,10 @@
         <v>42248</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1798,7 +1972,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
@@ -1811,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1823,19 +1997,19 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
       </c>
       <c r="D25" s="10">
         <v>42245</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="11">
         <v>8.06</v>
@@ -1851,10 +2025,10 @@
         <v>42262</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="3"/>
@@ -1875,7 +2049,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O28" s="7">
         <f t="shared" si="3"/>

--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
   <si>
     <t>Task</t>
   </si>
@@ -371,14 +371,7 @@
     <t>need to work asynchronously</t>
   </si>
   <si>
-    <t xml:space="preserve">
-home made encoder</t>
-  </si>
-  <si>
     <t>at the end system reliable en  term of distance</t>
-  </si>
-  <si>
-    <t>still some slight speed difference between motors that introduces an angle</t>
   </si>
   <si>
     <t>Power system</t>
@@ -391,11 +384,20 @@
 1 for electronic and 1 for motors</t>
   </si>
   <si>
-    <t xml:space="preserve">first experiences ok </t>
-  </si>
-  <si>
     <t>risk to be rather complex to maintain 
 to be design as an object ?</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>december 2015</t>
+  </si>
+  <si>
+    <t>january 2016</t>
+  </si>
+  <si>
+    <t>home made encoder / at the end work with analog read and asynchronous soft</t>
   </si>
 </sst>
 </file>
@@ -825,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I15:I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +932,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -950,13 +952,10 @@
         <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
         <v>106</v>
-      </c>
-      <c r="H6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1048,6 +1047,9 @@
       <c r="C12" t="s">
         <v>99</v>
       </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
       <c r="F12" t="s">
         <v>93</v>
       </c>
@@ -1082,17 +1084,20 @@
       <c r="C14" t="s">
         <v>104</v>
       </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
         <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1100,16 +1105,16 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
   <si>
     <t>Task</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Progress</t>
   </si>
   <si>
-    <t>Tested:  arduino connection and dialog</t>
-  </si>
-  <si>
     <t>Linear acceleromter</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
   </si>
   <si>
     <t xml:space="preserve">pignions </t>
-  </si>
-  <si>
-    <t>completed</t>
   </si>
   <si>
     <t>Raspberry</t>
@@ -398,6 +392,30 @@
   </si>
   <si>
     <t>home made encoder / at the end work with analog read and asynchronous soft</t>
+  </si>
+  <si>
+    <t>Tested:  arduino connection and dialog &gt;&gt; decided to just use magnetometer as a first step</t>
+  </si>
+  <si>
+    <t>Integration Octave</t>
+  </si>
+  <si>
+    <t>determine the possibilities to integrate octave and java code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java defined as octave object </t>
+  </si>
+  <si>
+    <t>Asynchronous communication</t>
+  </si>
+  <si>
+    <t>add northorientation to the learning data of the scans</t>
+  </si>
+  <si>
+    <t>work in progress</t>
+  </si>
+  <si>
+    <t>developp an asynchronous communication between Octave and Arduino using Java server</t>
   </si>
 </sst>
 </file>
@@ -825,20 +843,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.42578125" customWidth="1"/>
     <col min="9" max="9" width="40.5703125" customWidth="1"/>
@@ -912,7 +930,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -932,7 +950,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -952,10 +970,10 @@
         <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -969,13 +987,13 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1003,13 +1021,13 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1017,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1025,16 +1043,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
-      </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1042,19 +1060,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
         <v>97</v>
       </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1062,16 +1080,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1079,25 +1097,25 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>105</v>
-      </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1105,16 +1123,55 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1179,12 +1236,12 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -1194,25 +1251,25 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
@@ -1221,30 +1278,30 @@
         <v>4</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10">
         <v>42298</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="11">
         <v>6.9</v>
@@ -1263,19 +1320,19 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="10">
         <v>42291</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="11">
         <f>15.72/5</f>
@@ -1289,10 +1346,10 @@
         <v>15.72</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1304,19 +1361,19 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="10">
         <v>42305</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="11">
         <f>1.57/10</f>
@@ -1330,10 +1387,10 @@
         <v>1.57</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1345,16 +1402,16 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="10">
         <v>42275</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="11">
         <v>14.68</v>
@@ -1370,10 +1427,10 @@
         <v>42299</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1385,16 +1442,16 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="10">
         <v>42260</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="11">
         <v>1.28</v>
@@ -1410,7 +1467,7 @@
         <v>42297</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O7" s="7">
         <f t="shared" si="1"/>
@@ -1419,19 +1476,19 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="10">
         <v>42257</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="11">
         <v>4.92</v>
@@ -1447,10 +1504,10 @@
         <v>42277</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1462,19 +1519,19 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="10">
         <v>42274</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="11">
         <f>2.69/20</f>
@@ -1491,10 +1548,10 @@
         <v>42299</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1506,19 +1563,19 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="10">
         <v>42243</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="11">
         <v>8.06</v>
@@ -1534,13 +1591,13 @@
         <v>42277</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1552,19 +1609,19 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="10">
         <v>42243</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="11">
         <f>7.38/10</f>
@@ -1581,10 +1638,10 @@
         <v>42278</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -1596,16 +1653,16 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="10">
         <v>42243</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="11">
         <v>5.38</v>
@@ -1621,10 +1678,10 @@
         <v>42277</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1636,16 +1693,16 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="10">
         <v>42243</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="11">
         <v>1.83</v>
@@ -1661,10 +1718,10 @@
         <v>42278</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1676,14 +1733,14 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="11">
         <v>4.2</v>
@@ -1699,7 +1756,7 @@
         <v>42292</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" si="1"/>
@@ -1708,7 +1765,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3">
         <v>2014</v>
@@ -1724,10 +1781,10 @@
         <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1739,16 +1796,16 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3">
         <v>2014</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="11">
         <f>6.3/2</f>
@@ -1762,10 +1819,10 @@
         <v>6.3</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1777,10 +1834,10 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
@@ -1796,7 +1853,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
@@ -1812,7 +1869,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="0"/>
@@ -1828,7 +1885,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
@@ -1844,19 +1901,19 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="10">
         <v>42331</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="11">
         <f>45/5</f>
@@ -1873,13 +1930,13 @@
         <v>42335</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1891,19 +1948,19 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="10">
         <v>42332</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="11">
         <v>2</v>
@@ -1919,10 +1976,10 @@
         <v>42336</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N22">
         <v>6</v>
@@ -1934,19 +1991,19 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
       </c>
       <c r="D23" s="10">
         <v>42243</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="11">
         <v>1.71</v>
@@ -1962,10 +2019,10 @@
         <v>42248</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1977,7 +2034,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
@@ -1990,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -2002,19 +2059,19 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
         <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
       </c>
       <c r="D25" s="10">
         <v>42245</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="11">
         <v>8.06</v>
@@ -2030,10 +2087,10 @@
         <v>42262</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="3"/>
@@ -2054,7 +2111,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O28" s="7">
         <f t="shared" si="3"/>

--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="145">
   <si>
     <t>Task</t>
   </si>
@@ -378,10 +378,6 @@
 1 for electronic and 1 for motors</t>
   </si>
   <si>
-    <t>risk to be rather complex to maintain 
-to be design as an object ?</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -416,6 +412,82 @@
   </si>
   <si>
     <t>developp an asynchronous communication between Octave and Arduino using Java server</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
+  <si>
+    <t>developp a flat learning and use North Orientation to shift current scan according to flat measurment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+to be design as an object </t>
+  </si>
+  <si>
+    <t>not that much precise regarding rotation</t>
+  </si>
+  <si>
+    <t>Define a global loop logic</t>
+  </si>
+  <si>
+    <t>Octave code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encoders &amp; echo system &gt; permanent power consumption </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design an eletronic power switch </t>
+  </si>
+  <si>
+    <t>to reduce power consumption of encoders &amp; echo system</t>
+  </si>
+  <si>
+    <t>Check constitency between robot heading calculation and North Orientation</t>
+  </si>
+  <si>
+    <t>octave loop</t>
+  </si>
+  <si>
+    <t>arduino code</t>
+  </si>
+  <si>
+    <t>Use NO to imporve rotation, precision</t>
+  </si>
+  <si>
+    <t>Use mode pulse &amp; NO to rotate little angle</t>
+  </si>
+  <si>
+    <t>Use echo F B before and after move</t>
+  </si>
+  <si>
+    <t>to increase location precision</t>
+  </si>
+  <si>
+    <t>add possibility to inhibit some kind of move according to obastclea</t>
+  </si>
+  <si>
+    <t>Use echo F B Right Left before rotation</t>
+  </si>
+  <si>
+    <t>to be sure to avoid osbacle</t>
+  </si>
+  <si>
+    <t>Path Calculation add logic to take into account robot shape</t>
+  </si>
+  <si>
+    <t>octave Astar code</t>
+  </si>
+  <si>
+    <t>Path determination</t>
+  </si>
+  <si>
+    <t>Astar Path detemination</t>
+  </si>
+  <si>
+    <t>Octave developp a localization convergence loop</t>
+  </si>
+  <si>
+    <t>include robot move</t>
   </si>
 </sst>
 </file>
@@ -843,16 +915,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -930,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -967,13 +1039,16 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
         <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1027,7 +1102,7 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1066,7 +1141,7 @@
         <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
         <v>91</v>
@@ -1103,7 +1178,7 @@
         <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
         <v>91</v>
@@ -1112,10 +1187,10 @@
         <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1134,36 +1209,39 @@
       <c r="H15" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
         <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1171,7 +1249,151 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="1" r:id="rId1"/>
     <sheet name="ToBeDecided" sheetId="2" r:id="rId2"/>
     <sheet name="BOM" sheetId="3" r:id="rId3"/>
     <sheet name="Category" sheetId="4" r:id="rId4"/>
+    <sheet name="TestPlan" sheetId="5" r:id="rId5"/>
+    <sheet name="MoveTest" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Category!$A$1:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MoveTest!$B$2:$U$156</definedName>
     <definedName name="Category">Category!$A$1:$A$10</definedName>
+    <definedName name="refNO_a_0">MoveTest!$U$1</definedName>
+    <definedName name="refNO_a_1m">MoveTest!$S$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,8 +55,60 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="B26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>modif delay check poisition 200 vs250</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>modif delay check poisition 300 vs250</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>modif delay check poisition250</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="196">
   <si>
     <t>Task</t>
   </si>
@@ -488,6 +545,159 @@
   </si>
   <si>
     <t>include robot move</t>
+  </si>
+  <si>
+    <t>Basic function</t>
+  </si>
+  <si>
+    <t>Scan</t>
+  </si>
+  <si>
+    <t>Move straightforward</t>
+  </si>
+  <si>
+    <t>Rotate</t>
+  </si>
+  <si>
+    <t>Determine Localization</t>
+  </si>
+  <si>
+    <t>Detect obstacles</t>
+  </si>
+  <si>
+    <t>Align to North orientation</t>
+  </si>
+  <si>
+    <t>Determine North Orientation</t>
+  </si>
+  <si>
+    <t>Compute trajectory</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>Mutliple</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>Clockwise</t>
+  </si>
+  <si>
+    <t>Counterclockwise</t>
+  </si>
+  <si>
+    <t>0° alignement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angle </t>
+  </si>
+  <si>
+    <t>stop on front detection</t>
+  </si>
+  <si>
+    <t>stop on back detection</t>
+  </si>
+  <si>
+    <t>restart after obstacle disappearance</t>
+  </si>
+  <si>
+    <t>Case north oriented</t>
+  </si>
+  <si>
+    <t>Case not north oriented</t>
+  </si>
+  <si>
+    <t>Determine global trajectory</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Monitor voltage</t>
+  </si>
+  <si>
+    <t>Move precision</t>
+  </si>
+  <si>
+    <t>Wheel control</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Computed</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Distance Left</t>
+  </si>
+  <si>
+    <t>Distance Right</t>
+  </si>
+  <si>
+    <t>PosX</t>
+  </si>
+  <si>
+    <t>PosY</t>
+  </si>
+  <si>
+    <t>North Orientation</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>Delta NO</t>
+  </si>
+  <si>
+    <t>DeltaCompReal</t>
+  </si>
+  <si>
+    <t>DeltaNOReal</t>
+  </si>
+  <si>
+    <t>TrigoPosXY</t>
+  </si>
+  <si>
+    <t>refNO a 1m</t>
+  </si>
+  <si>
+    <t>DeltaNOVsRef</t>
+  </si>
+  <si>
+    <t>refNO a 0</t>
+  </si>
+  <si>
+    <t>RealRotation</t>
+  </si>
+  <si>
+    <t>ComputedRotation</t>
   </si>
 </sst>
 </file>
@@ -529,7 +739,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,6 +749,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -583,7 +805,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -626,6 +871,702 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveTest!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ComputedRotation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveTest!$H$3:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveTest!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RealRotation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveTest!$K$3:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveTest!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeltaNOVsRef</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveTest!$O$3:$O$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MoveTest!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TrigoPosXY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MoveTest!$R$3:$R$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>-1.7899106082460694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.181188913326638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9814612199821919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59065721464667098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8087393224920654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7714697400340771</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3859440303888126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3613746581756199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1573330681295171</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1573330681295171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2060487792199577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.57872556560776212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2588461221703486</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4628166759168471</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6138807520036442</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7357045889283891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.57872556560776212</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8912695962205643</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.1573330681295171</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7714697400340771</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5395591685499532</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3613746581756199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3137224978242164</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7636416907261774</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.57872556560776212</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9814612199821919</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.1573330681295171</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.5275401516561722</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.57872556560776212</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.59680945122917706</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.1934894239820351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="233576320"/>
+        <c:axId val="233577856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="233576320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="233577856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="233577856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="233576320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -917,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -1449,24 +2390,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
@@ -2409,4 +3350,3137 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U156"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O37" sqref="O37:O40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="3" style="20" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="R1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1">
+        <v>126</v>
+      </c>
+      <c r="T1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>96</v>
+      </c>
+      <c r="F3" s="20">
+        <f>ABS(E3)</f>
+        <v>96</v>
+      </c>
+      <c r="G3">
+        <v>-3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>104</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L29" si="0">IF(E3&gt;0,refNO_a_0,refNO_a_1m)</f>
+        <v>138</v>
+      </c>
+      <c r="M3">
+        <v>123</v>
+      </c>
+      <c r="N3">
+        <f>L3-M3</f>
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O40" si="1">IF(C3&gt;0,refNO_a_1m-M3,refNO_a_0-M3)</f>
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P13" si="2">H3-K3</f>
+        <v>-2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q13" si="3">N3-K3</f>
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="4">IF(E3&lt;&gt;0,ATAN(G3/E3)*180/PI(),0)</f>
+        <v>-1.7899106082460694</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>97</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4:F25" si="5">ABS(E4)</f>
+        <v>97</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>101.5</v>
+      </c>
+      <c r="J4">
+        <v>104.5</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M4">
+        <v>124</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N18" si="6">L4-M4</f>
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="4"/>
+        <v>1.181188913326638</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>96</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>102</v>
+      </c>
+      <c r="J5">
+        <v>104.5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M5">
+        <v>124</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>2.9814612199821919</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>97</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>103</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M6">
+        <v>123</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>0.59065721464667098</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>99.5</v>
+      </c>
+      <c r="J7">
+        <v>103.5</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M7">
+        <v>123</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>1.8087393224920654</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>97</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>98</v>
+      </c>
+      <c r="J8">
+        <v>102.5</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M8">
+        <v>121</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>1.7714697400340771</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>96</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>99</v>
+      </c>
+      <c r="J9">
+        <v>103</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M9">
+        <v>121</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>2.3859440303888126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>97</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>98.5</v>
+      </c>
+      <c r="J10">
+        <v>102.5</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M10">
+        <v>121</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>2.3613746581756199</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>-100</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-99</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G11">
+        <v>-2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>101.5</v>
+      </c>
+      <c r="J11">
+        <v>99.8</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M11">
+        <v>134</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>-8</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>-11</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>1.1573330681295171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>99</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>100.5</v>
+      </c>
+      <c r="J12">
+        <v>99.7</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M12">
+        <v>127</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R13" si="7">IF(E12&lt;&gt;0,ATAN(G12/E12)*180/PI(),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>-100</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>-99</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G13">
+        <v>-2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>103</v>
+      </c>
+      <c r="J13">
+        <v>102</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M13">
+        <v>136</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>-11</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>1.1573330681295171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>95</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>99</v>
+      </c>
+      <c r="J14">
+        <v>99.5</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M14">
+        <v>125</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P18" si="8">H14-K14</f>
+        <v>11.5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q18" si="9">N14-K14</f>
+        <v>12.5</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:R40" si="10">IF(E14&lt;&gt;0,ATAN(G14/E14)*180/PI(),0)</f>
+        <v>1.2060487792199577</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>-100</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>-99</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>-3</v>
+      </c>
+      <c r="I15">
+        <v>101.2</v>
+      </c>
+      <c r="J15">
+        <v>104</v>
+      </c>
+      <c r="K15">
+        <v>-4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M15">
+        <v>139</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>-13</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="9"/>
+        <v>-9</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="10"/>
+        <v>-0.57872556560776212</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>94</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>99.5</v>
+      </c>
+      <c r="J16">
+        <v>99</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M16">
+        <v>126</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="10"/>
+        <v>4.2588461221703486</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>-100</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>-99</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>101.2</v>
+      </c>
+      <c r="J17">
+        <v>101.5</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M17">
+        <v>137</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>-11</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="9"/>
+        <v>-11</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>93</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>101</v>
+      </c>
+      <c r="J18">
+        <v>99</v>
+      </c>
+      <c r="K18">
+        <v>-3</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M18">
+        <v>128</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="10"/>
+        <v>2.4628166759168471</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>-100</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>-99</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>102.5</v>
+      </c>
+      <c r="J19">
+        <v>101.5</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M19">
+        <v>136</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N25" si="11">L19-M19</f>
+        <v>-10</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P25" si="12">H19-K19</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q25" si="13">N19-K19</f>
+        <v>-10.5</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>95</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>99.4</v>
+      </c>
+      <c r="J20">
+        <v>99</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M20">
+        <v>126</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="10"/>
+        <v>3.6138807520036442</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>-100</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-99</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G21">
+        <v>-3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>98.8</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M21">
+        <v>138</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="11"/>
+        <v>-12</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="13"/>
+        <v>-9</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="10"/>
+        <v>1.7357045889283891</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>102.5</v>
+      </c>
+      <c r="J22">
+        <v>101.5</v>
+      </c>
+      <c r="K22">
+        <v>-0.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M22">
+        <v>127</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="13"/>
+        <v>11.5</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>-100</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-99</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>101</v>
+      </c>
+      <c r="J23">
+        <v>98.5</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M23">
+        <v>133</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="13"/>
+        <v>-9</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="10"/>
+        <v>0.57872556560776212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>-100</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>-99</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G24">
+        <v>-5</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>101.7</v>
+      </c>
+      <c r="J24">
+        <v>101</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M24">
+        <v>136</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="13"/>
+        <v>-10</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="10"/>
+        <v>2.8912695962205643</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>99</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="G25">
+        <v>-2</v>
+      </c>
+      <c r="H25">
+        <v>-3</v>
+      </c>
+      <c r="I25">
+        <v>101</v>
+      </c>
+      <c r="J25">
+        <v>98.5</v>
+      </c>
+      <c r="K25">
+        <v>-4</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M25">
+        <v>129</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="10"/>
+        <v>-1.1573330681295171</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>97</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" ref="F26:F89" si="14">ABS(E26)</f>
+        <v>97</v>
+      </c>
+      <c r="G26">
+        <v>-3</v>
+      </c>
+      <c r="H26">
+        <v>-6</v>
+      </c>
+      <c r="I26">
+        <v>99.5</v>
+      </c>
+      <c r="J26">
+        <v>98.5</v>
+      </c>
+      <c r="K26">
+        <v>-5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M26">
+        <v>129</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26" si="15">L26-M26</f>
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26" si="16">H26-K26</f>
+        <v>-1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26" si="17">N26-K26</f>
+        <v>14</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="10"/>
+        <v>-1.7714697400340771</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>-100</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>-97</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="G27">
+        <v>-6</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>101</v>
+      </c>
+      <c r="J27">
+        <v>100.5</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M27">
+        <v>136</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27" si="18">L27-M27</f>
+        <v>-10</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27:P40" si="19">H27-K27</f>
+        <v>9</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27" si="20">N27-K27</f>
+        <v>-10</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="10"/>
+        <v>3.5395591685499532</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>99</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>100.5</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>-0.5</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="M28">
+        <v>136</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28" si="21">L28-M28</f>
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:Q40" si="22">N28-K28</f>
+        <v>2.5</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>-100</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>-97</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>100.2</v>
+      </c>
+      <c r="J29">
+        <v>97.5</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="M29">
+        <v>134</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29" si="23">L29-M29</f>
+        <v>-8</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="22"/>
+        <v>-11</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>97</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>98</v>
+      </c>
+      <c r="J30">
+        <v>100.5</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>160</v>
+      </c>
+      <c r="M30">
+        <v>145</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N40" si="24">L30-M30</f>
+        <v>15</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="10"/>
+        <v>2.3613746581756199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>-100</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>-99</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>-4</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>105</v>
+      </c>
+      <c r="J31">
+        <v>102.5</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>145</v>
+      </c>
+      <c r="M31">
+        <v>159</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="24"/>
+        <v>-14</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="22"/>
+        <v>-18</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="10"/>
+        <v>2.3137224978242164</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>96</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>99</v>
+      </c>
+      <c r="J32">
+        <v>103</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>160</v>
+      </c>
+      <c r="M32">
+        <v>143</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="10"/>
+        <v>4.7636416907261774</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>-100</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>-99</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>103</v>
+      </c>
+      <c r="J33">
+        <v>99</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>145</v>
+      </c>
+      <c r="M33">
+        <v>159</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="24"/>
+        <v>-14</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="19"/>
+        <v>-2</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="22"/>
+        <v>-19</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="10"/>
+        <v>-0.57872556560776212</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>96</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>99</v>
+      </c>
+      <c r="J34">
+        <v>101.5</v>
+      </c>
+      <c r="K34">
+        <v>2.5</v>
+      </c>
+      <c r="L34">
+        <v>136</v>
+      </c>
+      <c r="M34">
+        <v>124</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="19"/>
+        <v>6.5</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="22"/>
+        <v>9.5</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="10"/>
+        <v>2.9814612199821919</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>-100</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>99</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="G35">
+        <v>-2</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>98</v>
+      </c>
+      <c r="J35">
+        <v>102</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>126</v>
+      </c>
+      <c r="M35">
+        <v>133</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="24"/>
+        <v>-7</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>-2</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="22"/>
+        <v>-12</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="10"/>
+        <v>-1.1573330681295171</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>93</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="14"/>
+        <v>93</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>97</v>
+      </c>
+      <c r="J36">
+        <v>103</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <v>136</v>
+      </c>
+      <c r="M36">
+        <v>119</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="10"/>
+        <v>5.5275401516561722</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>-100</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>-99</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>102.5</v>
+      </c>
+      <c r="J37">
+        <v>101</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>119</v>
+      </c>
+      <c r="M37">
+        <v>135</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="24"/>
+        <v>-16</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="22"/>
+        <v>-17</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="10"/>
+        <v>0.57872556560776212</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>-100</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>-96</v>
+      </c>
+      <c r="F38" s="20">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>-3</v>
+      </c>
+      <c r="I38">
+        <v>105</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>-7</v>
+      </c>
+      <c r="L38">
+        <v>127</v>
+      </c>
+      <c r="M38">
+        <v>144</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="24"/>
+        <v>-17</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="10"/>
+        <v>-0.59680945122917706</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>97</v>
+      </c>
+      <c r="F39" s="20">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>99.5</v>
+      </c>
+      <c r="J39">
+        <v>102.5</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>144</v>
+      </c>
+      <c r="M39">
+        <v>124</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="19"/>
+        <v>-5</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>-100</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>-96</v>
+      </c>
+      <c r="F40" s="20">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>-3</v>
+      </c>
+      <c r="I40">
+        <v>95</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>-7</v>
+      </c>
+      <c r="L40">
+        <v>124</v>
+      </c>
+      <c r="M40">
+        <v>146</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="24"/>
+        <v>-22</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="22"/>
+        <v>-15</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="10"/>
+        <v>-1.1934894239820351</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F41" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F42" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F43" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F44" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F45" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F46" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F47" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F48" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="20">
+        <f t="shared" ref="F90:F153" si="25">ABS(E90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="20">
+        <f t="shared" ref="F154:F156" si="26">ABS(E154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:U156"/>
+  <mergeCells count="4">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -1039,6 +1039,12 @@
                 <c:pt idx="37">
                   <c:v>-3</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1181,6 +1187,12 @@
                 <c:pt idx="37">
                   <c:v>-7</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1323,6 +1335,9 @@
                 <c:pt idx="37">
                   <c:v>-8</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1465,6 +1480,12 @@
                 <c:pt idx="37">
                   <c:v>-1.1934894239820351</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8476102659945959</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.57872556560776212</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1480,11 +1501,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233576320"/>
-        <c:axId val="233577856"/>
+        <c:axId val="131338624"/>
+        <c:axId val="131340160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233576320"/>
+        <c:axId val="131338624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233577856"/>
+        <c:crossAx val="131340160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1501,7 +1522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233577856"/>
+        <c:axId val="131340160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233576320"/>
+        <c:crossAx val="131338624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3523,10 +3544,10 @@
   <dimension ref="B1:U156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37:O40"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3631,8 +3652,8 @@
         <v>96</v>
       </c>
       <c r="F3" s="20">
-        <f>ABS(E3)</f>
-        <v>96</v>
+        <f t="shared" ref="F3:F30" si="0">SQRT(E3*E3+G3*G3)</f>
+        <v>96.046863561492728</v>
       </c>
       <c r="G3">
         <v>-3</v>
@@ -3650,7 +3671,7 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L29" si="0">IF(E3&gt;0,refNO_a_0,refNO_a_1m)</f>
+        <f t="shared" ref="L3:L29" si="1">IF(E3&gt;0,refNO_a_0,refNO_a_1m)</f>
         <v>138</v>
       </c>
       <c r="M3">
@@ -3661,19 +3682,19 @@
         <v>15</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O40" si="1">IF(C3&gt;0,refNO_a_1m-M3,refNO_a_0-M3)</f>
+        <f t="shared" ref="O3:O41" si="2">IF(C3&gt;0,refNO_a_1m-M3,refNO_a_0-M3)</f>
         <v>3</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P13" si="2">H3-K3</f>
+        <f t="shared" ref="P3:P13" si="3">H3-K3</f>
         <v>-2</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q13" si="3">N3-K3</f>
+        <f t="shared" ref="Q3:Q13" si="4">N3-K3</f>
         <v>10</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R11" si="4">IF(E3&lt;&gt;0,ATAN(G3/E3)*180/PI(),0)</f>
+        <f t="shared" ref="R3:R11" si="5">IF(E3&lt;&gt;0,ATAN(G3/E3)*180/PI(),0)</f>
         <v>-1.7899106082460694</v>
       </c>
     </row>
@@ -3688,8 +3709,8 @@
         <v>97</v>
       </c>
       <c r="F4" s="20">
-        <f t="shared" ref="F4:F25" si="5">ABS(E4)</f>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>97.020616365801345</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3707,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M4">
@@ -3718,19 +3739,19 @@
         <v>14</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="R4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.181188913326638</v>
       </c>
     </row>
@@ -3745,8 +3766,8 @@
         <v>96</v>
       </c>
       <c r="F5" s="20">
-        <f t="shared" si="5"/>
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>96.13012014972206</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -3764,7 +3785,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M5">
@@ -3775,19 +3796,19 @@
         <v>14</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="R5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9814612199821919</v>
       </c>
     </row>
@@ -3802,8 +3823,8 @@
         <v>97</v>
       </c>
       <c r="F6" s="20">
-        <f t="shared" si="5"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>97.005154502222197</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3821,7 +3842,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M6">
@@ -3832,19 +3853,19 @@
         <v>15</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.59065721464667098</v>
       </c>
     </row>
@@ -3859,8 +3880,8 @@
         <v>95</v>
       </c>
       <c r="F7" s="20">
-        <f t="shared" si="5"/>
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>95.047356617635614</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -3878,7 +3899,7 @@
         <v>6</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M7">
@@ -3889,19 +3910,19 @@
         <v>15</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="R7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8087393224920654</v>
       </c>
     </row>
@@ -3916,8 +3937,8 @@
         <v>97</v>
       </c>
       <c r="F8" s="20">
-        <f t="shared" si="5"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>97.04638066409278</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -3935,7 +3956,7 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M8">
@@ -3946,19 +3967,19 @@
         <v>17</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="R8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7714697400340771</v>
       </c>
     </row>
@@ -3973,8 +3994,8 @@
         <v>96</v>
       </c>
       <c r="F9" s="20">
-        <f t="shared" si="5"/>
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>96.083297195714508</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -3992,7 +4013,7 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M9">
@@ -4003,19 +4024,19 @@
         <v>17</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="R9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3859440303888126</v>
       </c>
     </row>
@@ -4030,8 +4051,8 @@
         <v>97</v>
       </c>
       <c r="F10" s="20">
-        <f t="shared" si="5"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>97.082439194738001</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -4049,7 +4070,7 @@
         <v>6</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M10">
@@ -4060,19 +4081,19 @@
         <v>17</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="R10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3613746581756199</v>
       </c>
     </row>
@@ -4087,8 +4108,8 @@
         <v>-99</v>
       </c>
       <c r="F11" s="20">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>99.02019995940222</v>
       </c>
       <c r="G11">
         <v>-2</v>
@@ -4106,7 +4127,7 @@
         <v>3</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="M11">
@@ -4117,19 +4138,19 @@
         <v>-8</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11</v>
       </c>
       <c r="R11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1573330681295171</v>
       </c>
     </row>
@@ -4144,7 +4165,7 @@
         <v>99</v>
       </c>
       <c r="F12" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="G12">
@@ -4163,7 +4184,7 @@
         <v>-1</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M12">
@@ -4174,15 +4195,15 @@
         <v>11</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="R12">
@@ -4201,8 +4222,8 @@
         <v>-99</v>
       </c>
       <c r="F13" s="20">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>99.02019995940222</v>
       </c>
       <c r="G13">
         <v>-2</v>
@@ -4220,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="M13">
@@ -4231,15 +4252,15 @@
         <v>-10</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P13">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11</v>
       </c>
       <c r="R13">
@@ -4258,8 +4279,8 @@
         <v>95</v>
       </c>
       <c r="F14" s="20">
-        <f t="shared" si="5"/>
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>95.02105029939419</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -4277,7 +4298,7 @@
         <v>0.5</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M14">
@@ -4288,7 +4309,7 @@
         <v>13</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P14">
@@ -4300,7 +4321,7 @@
         <v>12.5</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:R40" si="10">IF(E14&lt;&gt;0,ATAN(G14/E14)*180/PI(),0)</f>
+        <f t="shared" ref="R14:R42" si="10">IF(E14&lt;&gt;0,ATAN(G14/E14)*180/PI(),0)</f>
         <v>1.2060487792199577</v>
       </c>
     </row>
@@ -4315,8 +4336,8 @@
         <v>-99</v>
       </c>
       <c r="F15" s="20">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>99.005050376230813</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4334,7 +4355,7 @@
         <v>-4</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="M15">
@@ -4345,7 +4366,7 @@
         <v>-13</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="P15">
@@ -4372,8 +4393,8 @@
         <v>94</v>
       </c>
       <c r="F16" s="20">
-        <f t="shared" si="5"/>
-        <v>94</v>
+        <f t="shared" si="0"/>
+        <v>94.260277954183863</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -4391,7 +4412,7 @@
         <v>-1</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M16">
@@ -4402,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P16">
@@ -4429,7 +4450,7 @@
         <v>-99</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="G17">
@@ -4448,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="M17">
@@ -4459,7 +4480,7 @@
         <v>-11</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P17">
@@ -4486,8 +4507,8 @@
         <v>93</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" si="5"/>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>93.085981758801893</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -4505,7 +4526,7 @@
         <v>-3</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M18">
@@ -4516,7 +4537,7 @@
         <v>10</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="P18">
@@ -4543,7 +4564,7 @@
         <v>-99</v>
       </c>
       <c r="F19" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="G19">
@@ -4562,7 +4583,7 @@
         <v>0.5</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="M19">
@@ -4573,7 +4594,7 @@
         <v>-10</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P19">
@@ -4600,8 +4621,8 @@
         <v>95</v>
       </c>
       <c r="F20" s="20">
-        <f t="shared" si="5"/>
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>95.189285111298105</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -4619,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M20">
@@ -4630,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P20">
@@ -4657,8 +4678,8 @@
         <v>-99</v>
       </c>
       <c r="F21" s="20">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>99.045444115315064</v>
       </c>
       <c r="G21">
         <v>-3</v>
@@ -4676,7 +4697,7 @@
         <v>-3</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="M21">
@@ -4687,7 +4708,7 @@
         <v>-12</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P21">
@@ -4714,7 +4735,7 @@
         <v>99</v>
       </c>
       <c r="F22" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="G22">
@@ -4733,7 +4754,7 @@
         <v>-0.5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M22">
@@ -4744,7 +4765,7 @@
         <v>11</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="P22">
@@ -4771,8 +4792,8 @@
         <v>-99</v>
       </c>
       <c r="F23" s="20">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>99.005050376230813</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -4790,7 +4811,7 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="M23">
@@ -4801,7 +4822,7 @@
         <v>-7</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P23">
@@ -4828,8 +4849,8 @@
         <v>-99</v>
       </c>
       <c r="F24" s="20">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>99.126182212370111</v>
       </c>
       <c r="G24">
         <v>-5</v>
@@ -4847,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="M24">
@@ -4858,7 +4879,7 @@
         <v>-10</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P24">
@@ -4885,8 +4906,8 @@
         <v>99</v>
       </c>
       <c r="F25" s="20">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>99.02019995940222</v>
       </c>
       <c r="G25">
         <v>-2</v>
@@ -4904,7 +4925,7 @@
         <v>-4</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M25">
@@ -4915,7 +4936,7 @@
         <v>9</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="P25">
@@ -4942,8 +4963,8 @@
         <v>97</v>
       </c>
       <c r="F26" s="20">
-        <f t="shared" ref="F26:F89" si="14">ABS(E26)</f>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>97.04638066409278</v>
       </c>
       <c r="G26">
         <v>-3</v>
@@ -4961,26 +4982,26 @@
         <v>-5</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M26">
         <v>129</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26" si="15">L26-M26</f>
+        <f t="shared" ref="N26" si="14">L26-M26</f>
         <v>9</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26" si="16">H26-K26</f>
+        <f t="shared" ref="P26" si="15">H26-K26</f>
         <v>-1</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26" si="17">N26-K26</f>
+        <f t="shared" ref="Q26" si="16">N26-K26</f>
         <v>14</v>
       </c>
       <c r="R26">
@@ -4999,8 +5020,8 @@
         <v>-97</v>
       </c>
       <c r="F27" s="20">
-        <f t="shared" si="14"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>97.185389848474657</v>
       </c>
       <c r="G27">
         <v>-6</v>
@@ -5018,26 +5039,26 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="M27">
         <v>136</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27" si="18">L27-M27</f>
+        <f t="shared" ref="N27" si="17">L27-M27</f>
         <v>-10</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="P27:P40" si="19">H27-K27</f>
+        <f t="shared" ref="P27:P42" si="18">H27-K27</f>
         <v>9</v>
       </c>
       <c r="Q27">
-        <f t="shared" ref="Q27" si="20">N27-K27</f>
+        <f t="shared" ref="Q27" si="19">N27-K27</f>
         <v>-10</v>
       </c>
       <c r="R27">
@@ -5056,7 +5077,7 @@
         <v>99</v>
       </c>
       <c r="F28" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="G28">
@@ -5075,26 +5096,26 @@
         <v>-0.5</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="M28">
         <v>136</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28" si="21">L28-M28</f>
+        <f t="shared" ref="N28" si="20">L28-M28</f>
         <v>2</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="P28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3.5</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:Q40" si="22">N28-K28</f>
+        <f t="shared" ref="Q28:Q42" si="21">N28-K28</f>
         <v>2.5</v>
       </c>
       <c r="R28">
@@ -5113,7 +5134,7 @@
         <v>-97</v>
       </c>
       <c r="F29" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="G29">
@@ -5132,26 +5153,26 @@
         <v>3</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="M29">
         <v>134</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29" si="23">L29-M29</f>
+        <f t="shared" ref="N29" si="22">L29-M29</f>
         <v>-8</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-11</v>
       </c>
       <c r="R29">
@@ -5170,8 +5191,8 @@
         <v>97</v>
       </c>
       <c r="F30" s="20">
-        <f t="shared" si="14"/>
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>97.082439194738001</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -5195,19 +5216,19 @@
         <v>145</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N40" si="24">L30-M30</f>
+        <f t="shared" ref="N30:N42" si="23">L30-M30</f>
         <v>15</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19</v>
       </c>
       <c r="P30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="R30">
@@ -5226,8 +5247,8 @@
         <v>-99</v>
       </c>
       <c r="F31" s="20">
-        <f t="shared" si="14"/>
-        <v>99</v>
+        <f t="shared" ref="F31:F40" si="24">SQRT(E31*E31+G31*G31)</f>
+        <v>99.080775128175091</v>
       </c>
       <c r="G31">
         <v>-4</v>
@@ -5251,19 +5272,19 @@
         <v>159</v>
       </c>
       <c r="N31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>-14</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-21</v>
       </c>
       <c r="P31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-18</v>
       </c>
       <c r="R31">
@@ -5282,8 +5303,8 @@
         <v>96</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" si="14"/>
-        <v>96</v>
+        <f t="shared" si="24"/>
+        <v>96.332756630338366</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -5307,19 +5328,19 @@
         <v>143</v>
       </c>
       <c r="N32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-17</v>
       </c>
       <c r="P32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="R32">
@@ -5338,8 +5359,8 @@
         <v>-99</v>
       </c>
       <c r="F33" s="20">
-        <f t="shared" si="14"/>
-        <v>99</v>
+        <f t="shared" si="24"/>
+        <v>99.005050376230813</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -5363,19 +5384,19 @@
         <v>159</v>
       </c>
       <c r="N33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>-14</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-21</v>
       </c>
       <c r="P33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-19</v>
       </c>
       <c r="R33">
@@ -5394,8 +5415,8 @@
         <v>96</v>
       </c>
       <c r="F34" s="20">
-        <f t="shared" si="14"/>
-        <v>96</v>
+        <f t="shared" si="24"/>
+        <v>96.13012014972206</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -5419,19 +5440,19 @@
         <v>124</v>
       </c>
       <c r="N34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6.5</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>9.5</v>
       </c>
       <c r="R34">
@@ -5450,8 +5471,8 @@
         <v>99</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="14"/>
-        <v>99</v>
+        <f t="shared" si="24"/>
+        <v>99.02019995940222</v>
       </c>
       <c r="G35">
         <v>-2</v>
@@ -5475,19 +5496,19 @@
         <v>133</v>
       </c>
       <c r="N35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>-7</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-12</v>
       </c>
       <c r="R35">
@@ -5506,8 +5527,8 @@
         <v>93</v>
       </c>
       <c r="F36" s="20">
-        <f t="shared" si="14"/>
-        <v>93</v>
+        <f t="shared" si="24"/>
+        <v>93.434469014384618</v>
       </c>
       <c r="G36">
         <v>9</v>
@@ -5531,19 +5552,19 @@
         <v>119</v>
       </c>
       <c r="N36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="P36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="R36">
@@ -5562,8 +5583,8 @@
         <v>-99</v>
       </c>
       <c r="F37" s="20">
-        <f t="shared" si="14"/>
-        <v>99</v>
+        <f t="shared" si="24"/>
+        <v>99.005050376230813</v>
       </c>
       <c r="G37">
         <v>-1</v>
@@ -5587,19 +5608,19 @@
         <v>135</v>
       </c>
       <c r="N37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>-16</v>
       </c>
       <c r="O37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-17</v>
       </c>
       <c r="R37">
@@ -5618,8 +5639,8 @@
         <v>-96</v>
       </c>
       <c r="F38" s="20">
-        <f t="shared" si="14"/>
-        <v>96</v>
+        <f t="shared" si="24"/>
+        <v>96.005208192055917</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -5643,19 +5664,19 @@
         <v>144</v>
       </c>
       <c r="N38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>-17</v>
       </c>
       <c r="O38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="P38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-10</v>
       </c>
       <c r="R38">
@@ -5674,7 +5695,7 @@
         <v>97</v>
       </c>
       <c r="F39" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>97</v>
       </c>
       <c r="G39">
@@ -5699,19 +5720,19 @@
         <v>124</v>
       </c>
       <c r="N39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="O39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="R39">
@@ -5730,8 +5751,8 @@
         <v>-96</v>
       </c>
       <c r="F40" s="20">
-        <f t="shared" si="14"/>
-        <v>96</v>
+        <f t="shared" si="24"/>
+        <v>96.020831073262428</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -5755,19 +5776,19 @@
         <v>146</v>
       </c>
       <c r="N40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>-22</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="P40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>-15</v>
       </c>
       <c r="R40">
@@ -5776,698 +5797,794 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>93</v>
+      </c>
       <c r="F41" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>SQRT(E41*E41+G41*G41)</f>
+        <v>93.048374515624943</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>99.5</v>
+      </c>
+      <c r="J41">
+        <v>101.5</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>138</v>
+      </c>
+      <c r="M41">
+        <v>124</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="10"/>
+        <v>1.8476102659945959</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>-100</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>-99</v>
+      </c>
       <c r="F42" s="20">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="F26:F89" si="25">ABS(E42)</f>
+        <v>99</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>99.5</v>
+      </c>
+      <c r="J42">
+        <v>98</v>
+      </c>
+      <c r="K42">
+        <v>-1</v>
+      </c>
+      <c r="L42">
+        <v>126</v>
+      </c>
+      <c r="M42">
+        <v>141</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="23"/>
+        <v>-15</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="21"/>
+        <v>-14</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="10"/>
+        <v>0.57872556560776212</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F43" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F44" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F45" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F46" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F47" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F48" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="20">
-        <f t="shared" ref="F90:F153" si="25">ABS(E90)</f>
+        <f t="shared" ref="F90:F153" si="26">ABS(E90)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F131" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F132" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F133" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F135" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F136" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F137" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F142" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F143" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F144" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F145" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F146" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F147" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F148" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F149" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F150" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F151" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F152" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F153" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F154" s="20">
-        <f t="shared" ref="F154:F156" si="26">ABS(E154)</f>
+        <f t="shared" ref="F154:F156" si="27">ABS(E154)</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F155" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F156" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>

--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="204">
   <si>
     <t>Task</t>
   </si>
@@ -698,6 +698,30 @@
   </si>
   <si>
     <t>ComputedRotation</t>
+  </si>
+  <si>
+    <t>shaft</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Olimex ESP8266</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Imoex</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Zener diode</t>
+  </si>
+  <si>
+    <t>Transistor</t>
   </si>
 </sst>
 </file>
@@ -1501,11 +1525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131338624"/>
-        <c:axId val="131340160"/>
+        <c:axId val="337927552"/>
+        <c:axId val="346576768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131338624"/>
+        <c:axId val="337927552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131340160"/>
+        <c:crossAx val="346576768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1522,7 +1546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131340160"/>
+        <c:axId val="346576768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,14 +1557,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131338624"/>
+        <c:crossAx val="337927552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2391,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O31"/>
+  <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,12 +2517,18 @@
         <v>1</v>
       </c>
       <c r="I3" s="11">
-        <f t="shared" ref="I3:I25" si="0">G3*H3</f>
+        <f t="shared" ref="I3:I27" si="0">G3*H3</f>
         <v>6.9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
       </c>
       <c r="O3" s="7">
         <f>N3*G3</f>
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -2653,9 +2682,15 @@
       <c r="K7" t="s">
         <v>47</v>
       </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
       <c r="O7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2942,6 +2977,12 @@
       <c r="K14" t="s">
         <v>47</v>
       </c>
+      <c r="M14" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
       <c r="O14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2968,14 +3009,14 @@
         <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
@@ -3039,16 +3080,22 @@
       <c r="B18" t="s">
         <v>63</v>
       </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -3060,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
         <f t="shared" si="2"/>
@@ -3169,7 +3216,7 @@
         <v>6</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" ref="O22:O28" si="3">N22*G22</f>
+        <f t="shared" ref="O22:O31" si="3">N22*G22</f>
         <v>12</v>
       </c>
     </row>
@@ -3276,39 +3323,125 @@
       <c r="L25" t="s">
         <v>88</v>
       </c>
+      <c r="M25" t="s">
+        <v>197</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
       <c r="O25" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O26" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="11">
+        <v>12</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M27" t="s">
+        <v>199</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
       <c r="O27" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>80</v>
       </c>
+      <c r="G28" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="N28">
+        <v>12</v>
+      </c>
       <c r="O28" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O29" s="7"/>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="M29" t="s">
+        <v>199</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29" s="7">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O31" s="12">
-        <f>SUM(O3:O30)</f>
-        <v>123.08199999999999</v>
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="12">
+        <f>SUM(O3:O31)</f>
+        <v>110.11199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5863,7 +5996,7 @@
         <v>-99</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" ref="F26:F89" si="25">ABS(E42)</f>
+        <f t="shared" ref="F42:F89" si="25">ABS(E42)</f>
         <v>99</v>
       </c>
       <c r="G42">

--- a/ProjectPlan/ToDoList.xlsx
+++ b/ProjectPlan/ToDoList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="2340" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ToDoList" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <definedName name="refNO_a_0">MoveTest!$U$1</definedName>
     <definedName name="refNO_a_1m">MoveTest!$S$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -31,7 +32,7 @@
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="B26" authorId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0">
+    <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="206">
   <si>
     <t>Task</t>
   </si>
@@ -722,12 +723,18 @@
   </si>
   <si>
     <t>Transistor</t>
+  </si>
+  <si>
+    <t>Arduino NANO</t>
+  </si>
+  <si>
+    <t>IMU BNO055</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -883,7 +890,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -893,12 +900,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1073,6 +1083,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C396-49EB-80D4-138043C124C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1221,6 +1236,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C396-49EB-80D4-138043C124C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1366,6 +1386,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C396-49EB-80D4-138043C124C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1514,6 +1539,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C396-49EB-80D4-138043C124C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1523,7 +1553,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="337927552"/>
         <c:axId val="346576768"/>
@@ -1595,7 +1624,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Graphique 7"/>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1656,7 +1691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1689,9 +1724,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1724,6 +1776,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1902,14 +1971,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G21:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -2416,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="7">
-        <f>N16*G16</f>
+        <f t="shared" ref="O16:O21" si="2">N16*G16</f>
         <v>6.3</v>
       </c>
     </row>
@@ -3072,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" ref="O17:O21" si="2">N17*G17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3438,7 +3507,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>205</v>
+      </c>
       <c r="O33" s="12">
         <f>SUM(O3:O31)</f>
         <v>110.11199999999999</v>
@@ -3677,7 +3754,7 @@
   <dimension ref="B1:U156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
@@ -4340,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="R12">
-        <f t="shared" ref="R12:R13" si="7">IF(E12&lt;&gt;0,ATAN(G12/E12)*180/PI(),0)</f>
+        <f>IF(E12&lt;&gt;0,ATAN(G12/E12)*180/PI(),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4397,7 +4474,7 @@
         <v>-11</v>
       </c>
       <c r="R13">
-        <f t="shared" si="7"/>
+        <f>IF(E13&lt;&gt;0,ATAN(G13/E13)*180/PI(),0)</f>
         <v>1.1573330681295171</v>
       </c>
     </row>
@@ -4446,15 +4523,15 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:P18" si="8">H14-K14</f>
+        <f>H14-K14</f>
         <v>11.5</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q14:Q18" si="9">N14-K14</f>
+        <f>N14-K14</f>
         <v>12.5</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:R42" si="10">IF(E14&lt;&gt;0,ATAN(G14/E14)*180/PI(),0)</f>
+        <f t="shared" ref="R14:R42" si="7">IF(E14&lt;&gt;0,ATAN(G14/E14)*180/PI(),0)</f>
         <v>1.2060487792199577</v>
       </c>
     </row>
@@ -4503,15 +4580,15 @@
         <v>-1</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
+        <f>H15-K15</f>
         <v>1</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="9"/>
+        <f>N15-K15</f>
         <v>-9</v>
       </c>
       <c r="R15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-0.57872556560776212</v>
       </c>
     </row>
@@ -4560,15 +4637,15 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="8"/>
+        <f>H16-K16</f>
         <v>13</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="9"/>
+        <f>N16-K16</f>
         <v>13</v>
       </c>
       <c r="R16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.2588461221703486</v>
       </c>
     </row>
@@ -4617,15 +4694,15 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <f t="shared" si="8"/>
+        <f>H17-K17</f>
         <v>3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="9"/>
+        <f>N17-K17</f>
         <v>-11</v>
       </c>
       <c r="R17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4674,15 +4751,15 @@
         <v>-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="8"/>
+        <f>H18-K18</f>
         <v>12</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="9"/>
+        <f>N18-K18</f>
         <v>13</v>
       </c>
       <c r="R18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.4628166759168471</v>
       </c>
     </row>
@@ -4723,7 +4800,7 @@
         <v>136</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N25" si="11">L19-M19</f>
+        <f t="shared" ref="N19:N25" si="8">L19-M19</f>
         <v>-10</v>
       </c>
       <c r="O19">
@@ -4731,15 +4808,15 @@
         <v>2</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P25" si="12">H19-K19</f>
+        <f t="shared" ref="P19:P25" si="9">H19-K19</f>
         <v>2.5</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q25" si="13">N19-K19</f>
+        <f t="shared" ref="Q19:Q25" si="10">N19-K19</f>
         <v>-10.5</v>
       </c>
       <c r="R19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4780,7 +4857,7 @@
         <v>126</v>
       </c>
       <c r="N20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="O20">
@@ -4788,15 +4865,15 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="R20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.6138807520036442</v>
       </c>
     </row>
@@ -4837,7 +4914,7 @@
         <v>138</v>
       </c>
       <c r="N21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-12</v>
       </c>
       <c r="O21">
@@ -4845,15 +4922,15 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-9</v>
       </c>
       <c r="R21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.7357045889283891</v>
       </c>
     </row>
@@ -4894,7 +4971,7 @@
         <v>127</v>
       </c>
       <c r="N22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="O22">
@@ -4902,15 +4979,15 @@
         <v>-1</v>
       </c>
       <c r="P22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>11.5</v>
       </c>
       <c r="R22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4951,7 +5028,7 @@
         <v>133</v>
       </c>
       <c r="N23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-7</v>
       </c>
       <c r="O23">
@@ -4959,15 +5036,15 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-9</v>
       </c>
       <c r="R23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.57872556560776212</v>
       </c>
     </row>
@@ -5008,7 +5085,7 @@
         <v>136</v>
       </c>
       <c r="N24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>-10</v>
       </c>
       <c r="O24">
@@ -5016,15 +5093,15 @@
         <v>2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>-10</v>
       </c>
       <c r="R24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.8912695962205643</v>
       </c>
     </row>
@@ -5065,7 +5142,7 @@
         <v>129</v>
       </c>
       <c r="N25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="O25">
@@ -5073,15 +5150,15 @@
         <v>-3</v>
       </c>
       <c r="P25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="R25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1.1573330681295171</v>
       </c>
     </row>
@@ -5122,7 +5199,7 @@
         <v>129</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26" si="14">L26-M26</f>
+        <f>L26-M26</f>
         <v>9</v>
       </c>
       <c r="O26">
@@ -5130,15 +5207,15 @@
         <v>-3</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26" si="15">H26-K26</f>
+        <f>H26-K26</f>
         <v>-1</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26" si="16">N26-K26</f>
+        <f>N26-K26</f>
         <v>14</v>
       </c>
       <c r="R26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1.7714697400340771</v>
       </c>
     </row>
@@ -5179,7 +5256,7 @@
         <v>136</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27" si="17">L27-M27</f>
+        <f>L27-M27</f>
         <v>-10</v>
       </c>
       <c r="O27">
@@ -5187,15 +5264,15 @@
         <v>2</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="P27:P42" si="18">H27-K27</f>
+        <f t="shared" ref="P27:P42" si="11">H27-K27</f>
         <v>9</v>
       </c>
       <c r="Q27">
-        <f t="shared" ref="Q27" si="19">N27-K27</f>
+        <f>N27-K27</f>
         <v>-10</v>
       </c>
       <c r="R27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3.5395591685499532</v>
       </c>
     </row>
@@ -5236,7 +5313,7 @@
         <v>136</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28" si="20">L28-M28</f>
+        <f>L28-M28</f>
         <v>2</v>
       </c>
       <c r="O28">
@@ -5244,15 +5321,15 @@
         <v>-10</v>
       </c>
       <c r="P28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
       <c r="Q28">
-        <f t="shared" ref="Q28:Q42" si="21">N28-K28</f>
+        <f t="shared" ref="Q28:Q42" si="12">N28-K28</f>
         <v>2.5</v>
       </c>
       <c r="R28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5293,7 +5370,7 @@
         <v>134</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29" si="22">L29-M29</f>
+        <f>L29-M29</f>
         <v>-8</v>
       </c>
       <c r="O29">
@@ -5301,15 +5378,15 @@
         <v>4</v>
       </c>
       <c r="P29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>-11</v>
       </c>
       <c r="R29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5349,7 +5426,7 @@
         <v>145</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N42" si="23">L30-M30</f>
+        <f t="shared" ref="N30:N42" si="13">L30-M30</f>
         <v>15</v>
       </c>
       <c r="O30">
@@ -5357,15 +5434,15 @@
         <v>-19</v>
       </c>
       <c r="P30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="R30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.3613746581756199</v>
       </c>
     </row>
@@ -5380,7 +5457,7 @@
         <v>-99</v>
       </c>
       <c r="F31" s="20">
-        <f t="shared" ref="F31:F40" si="24">SQRT(E31*E31+G31*G31)</f>
+        <f t="shared" ref="F31:F40" si="14">SQRT(E31*E31+G31*G31)</f>
         <v>99.080775128175091</v>
       </c>
       <c r="G31">
@@ -5405,7 +5482,7 @@
         <v>159</v>
       </c>
       <c r="N31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-14</v>
       </c>
       <c r="O31">
@@ -5413,15 +5490,15 @@
         <v>-21</v>
       </c>
       <c r="P31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>-18</v>
       </c>
       <c r="R31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.3137224978242164</v>
       </c>
     </row>
@@ -5436,7 +5513,7 @@
         <v>96</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>96.332756630338366</v>
       </c>
       <c r="G32">
@@ -5461,7 +5538,7 @@
         <v>143</v>
       </c>
       <c r="N32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="O32">
@@ -5469,15 +5546,15 @@
         <v>-17</v>
       </c>
       <c r="P32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="R32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4.7636416907261774</v>
       </c>
     </row>
@@ -5492,7 +5569,7 @@
         <v>-99</v>
       </c>
       <c r="F33" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>99.005050376230813</v>
       </c>
       <c r="G33">
@@ -5517,7 +5594,7 @@
         <v>159</v>
       </c>
       <c r="N33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-14</v>
       </c>
       <c r="O33">
@@ -5525,15 +5602,15 @@
         <v>-21</v>
       </c>
       <c r="P33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>-19</v>
       </c>
       <c r="R33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-0.57872556560776212</v>
       </c>
     </row>
@@ -5548,7 +5625,7 @@
         <v>96</v>
       </c>
       <c r="F34" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>96.13012014972206</v>
       </c>
       <c r="G34">
@@ -5573,7 +5650,7 @@
         <v>124</v>
       </c>
       <c r="N34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="O34">
@@ -5581,15 +5658,15 @@
         <v>2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>6.5</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="R34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2.9814612199821919</v>
       </c>
     </row>
@@ -5604,7 +5681,7 @@
         <v>99</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>99.02019995940222</v>
       </c>
       <c r="G35">
@@ -5629,7 +5706,7 @@
         <v>133</v>
       </c>
       <c r="N35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-7</v>
       </c>
       <c r="O35">
@@ -5637,15 +5714,15 @@
         <v>5</v>
       </c>
       <c r="P35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>-12</v>
       </c>
       <c r="R35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1.1573330681295171</v>
       </c>
     </row>
@@ -5660,7 +5737,7 @@
         <v>93</v>
       </c>
       <c r="F36" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>93.434469014384618</v>
       </c>
       <c r="G36">
@@ -5685,7 +5762,7 @@
         <v>119</v>
       </c>
       <c r="N36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="O36">
@@ -5693,15 +5770,15 @@
         <v>7</v>
       </c>
       <c r="P36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="R36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5.5275401516561722</v>
       </c>
     </row>
@@ -5716,7 +5793,7 @@
         <v>-99</v>
       </c>
       <c r="F37" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>99.005050376230813</v>
       </c>
       <c r="G37">
@@ -5741,7 +5818,7 @@
         <v>135</v>
       </c>
       <c r="N37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-16</v>
       </c>
       <c r="O37">
@@ -5749,15 +5826,15 @@
         <v>3</v>
       </c>
       <c r="P37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>-17</v>
       </c>
       <c r="R37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.57872556560776212</v>
       </c>
     </row>
@@ -5772,7 +5849,7 @@
         <v>-96</v>
       </c>
       <c r="F38" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>96.005208192055917</v>
       </c>
       <c r="G38">
@@ -5797,7 +5874,7 @@
         <v>144</v>
       </c>
       <c r="N38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-17</v>
       </c>
       <c r="O38">
@@ -5805,15 +5882,15 @@
         <v>-6</v>
       </c>
       <c r="P38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>-10</v>
       </c>
       <c r="R38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-0.59680945122917706</v>
       </c>
     </row>
@@ -5828,7 +5905,7 @@
         <v>97</v>
       </c>
       <c r="F39" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="G39">
@@ -5853,7 +5930,7 @@
         <v>124</v>
       </c>
       <c r="N39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="O39">
@@ -5861,15 +5938,15 @@
         <v>2</v>
       </c>
       <c r="P39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-5</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="R39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5884,7 +5961,7 @@
         <v>-96</v>
       </c>
       <c r="F40" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>96.020831073262428</v>
       </c>
       <c r="G40">
@@ -5909,7 +5986,7 @@
         <v>146</v>
       </c>
       <c r="N40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-22</v>
       </c>
       <c r="O40">
@@ -5917,15 +5994,15 @@
         <v>-8</v>
       </c>
       <c r="P40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>-15</v>
       </c>
       <c r="R40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>-1.1934894239820351</v>
       </c>
     </row>
@@ -5965,7 +6042,7 @@
         <v>124</v>
       </c>
       <c r="N41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="O41">
@@ -5973,15 +6050,15 @@
         <v>2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="R41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.8476102659945959</v>
       </c>
     </row>
@@ -5996,7 +6073,7 @@
         <v>-99</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" ref="F42:F89" si="25">ABS(E42)</f>
+        <f t="shared" ref="F42:F89" si="15">ABS(E42)</f>
         <v>99</v>
       </c>
       <c r="G42">
@@ -6021,703 +6098,703 @@
         <v>141</v>
       </c>
       <c r="N42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>-15</v>
       </c>
       <c r="P42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>-14</v>
       </c>
       <c r="R42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.57872556560776212</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F43" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F44" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F45" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F46" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F47" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F48" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="20">
-        <f t="shared" ref="F90:F153" si="26">ABS(E90)</f>
+        <f t="shared" ref="F90:F153" si="16">ABS(E90)</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F130" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F131" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F132" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F133" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F135" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F136" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F137" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F142" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F143" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F144" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F145" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F146" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F147" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F148" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F149" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F150" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F151" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F152" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F153" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F154" s="20">
-        <f t="shared" ref="F154:F156" si="27">ABS(E154)</f>
+        <f>ABS(E154)</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F155" s="20">
-        <f t="shared" si="27"/>
+        <f>ABS(E155)</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F156" s="20">
-        <f t="shared" si="27"/>
+        <f>ABS(E156)</f>
         <v>0</v>
       </c>
     </row>
